--- a/JieLongMod_6/Excel/J剧情_空洞.xlsx
+++ b/JieLongMod_6/Excel/J剧情_空洞.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>剧情事件ID_StoryEvenID</t>
   </si>
@@ -60,13 +60,13 @@
     <t>使用随便观空洞通道选择</t>
   </si>
   <si>
-    <t>SELECT*主角#使用空洞#1:探索新空洞;2:前往沙扎尔*[%get_es:第一次进入沙扎尔%][&lt;&gt;]-1;3:前往亚空间*[%get_es:亚空间风暴1%][&lt;&gt;]-1;4:快捷返回*[%str_val:进入随便观前的位置信息%][&lt;&gt;][$null$];0:离开</t>
-  </si>
-  <si>
-    <t>[%result_code%][=]1:EVENT*探索新空洞
-[%result_code%][=]2:EVENT*从随便观前往沙扎尔
-[%result_code%][=]3:EVENT*调节下属之间的关系选择目标A
-[%result_code%][=]4:EVENT*快捷离开随便观</t>
+    <t>E20251023：使用SELECT_TALK设置，以增加拓展性</t>
+  </si>
+  <si>
+    <t>SELECT_TALK*主角#要使用通道做什么？#[ADDON_SELECT];0:离开#HOLLOW#0</t>
+  </si>
+  <si>
+    <t>[%result_code%][&gt;]99:EVENTPOJO_EVENT*</t>
   </si>
   <si>
     <t>探索新空洞</t>
@@ -96,12 +96,16 @@
   </si>
   <si>
     <r>
+      <t>DONE_QUEST*接龙_主线2#1</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>*主角#空洞观测数据桩显示这次探索到的新世界非常辽阔，看来这将会是一场刺激的空洞之旅</t>
+      <t xml:space="preserve">
+*主角#空洞观测数据桩显示这次探索到的新世界非常辽阔，看来这将会是一场刺激的空洞之旅</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +114,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
+      <t>。
+GET_QUEST*接龙_主线3</t>
     </r>
   </si>
   <si>
@@ -222,7 +227,33 @@
     <t>探索新空洞亚空间风暴</t>
   </si>
   <si>
-    <t>TELEPORT*yakongjian:0,0</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TELEPORT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:0,0</t>
+    </r>
   </si>
   <si>
     <t>1[=]1:EVENT*亚空间传送</t>
@@ -275,8 +306,34 @@
     <t>亚空间传送</t>
   </si>
   <si>
-    <t>TELEPORT*yakongjian:0,0
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TELEPORT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:0,0
 SELECTION_VIEW*战斗修女#战斗修女是战锤 40K宇宙，世界观中帝国国教的一个全女性分部，也是异端审判庭的下属武装，她们是帝皇忠诚的战士，以坚定的信仰和强大的战斗力著称。#1:[@lan=536]继续</t>
+    </r>
   </si>
   <si>
     <t>[%result_code%][=]1:EVENT*亚空间风暴1</t>
@@ -310,17 +367,68 @@
     <t>亚空间装置</t>
   </si>
   <si>
-    <t xml:space="preserve">
-TELEPORT*yakongjian:0,0
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TELEPORT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:0,0
 *战斗修女#这里还有许多迷失在这里的伙伴，我会召集她们跟你一起走。
 ADD_CARD*战斗修女#1</t>
+    </r>
   </si>
   <si>
     <t>前往随便观</t>
   </si>
   <si>
-    <t>SETSTRVAR*进入随便观前的位置信息#[$playerteam:map_info$]
-TELEPORT*suibianguan:-1295,-1037</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SETSTRVAR*进入随便观前的位置信息#[$playerteam:map_info$]
+TELEPORT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随便观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:-1295,-1037</t>
+    </r>
   </si>
   <si>
     <t>空洞通道前往随便观</t>
@@ -329,8 +437,32 @@
     <t>RUN_SCRIPT_FUNC*JLCommon#GetPlayerTeamCurMapIDToStrVar#TEMP</t>
   </si>
   <si>
-    <t>[%str_val:TEMP%][=]suibianguan:EVENT*空洞通道前往随便观_已在
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%str_val:TEMP%][=]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随便观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:EVENT*空洞通道前往随便观_已在
 1[=]1:EVENT*空洞通道前往随便观_确认</t>
+    </r>
   </si>
   <si>
     <t>空洞通道前往随便观_确认</t>
@@ -358,7 +490,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -420,6 +552,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -587,6 +726,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -921,148 +1066,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1078,7 +1223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +1296,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1160,10 +1311,7 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,7 +1320,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,11 +1332,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1205,10 +1356,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1619,7 +1773,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="3"/>
@@ -1672,181 +1826,183 @@
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="68.1" customHeight="1" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
+      <c r="D5" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="26" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="96" customHeight="1" spans="1:4">
-      <c r="A7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A8" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>21</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A9" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A10" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="21"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A11" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="21"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
-      <c r="A14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
         <v>36</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A15" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A16" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A17" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="D17" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A18" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
         <v>48</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="62.1" customHeight="1" spans="1:4">
       <c r="A19" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="21"/>
     </row>
@@ -1857,82 +2013,82 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" s="7" customFormat="1" ht="148.9" customHeight="1" spans="1:4">
-      <c r="A21" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38" t="s">
         <v>53</v>
       </c>
+      <c r="D21" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" s="8" customFormat="1" ht="275.1" customHeight="1" spans="1:4">
-      <c r="A22" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="C22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" s="8" customFormat="1" ht="105" customHeight="1" spans="1:4">
-      <c r="A23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="43"/>
     </row>
     <row r="24" s="9" customFormat="1" ht="138" customHeight="1" spans="1:4">
-      <c r="A24" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" s="10" customFormat="1" ht="28" spans="1:4">
-      <c r="A25" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49" t="s">
         <v>63</v>
       </c>
+      <c r="D25" s="49" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" s="10" customFormat="1" ht="15" spans="1:4">
-      <c r="A26" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46" t="s">
+      <c r="A26" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49" t="s">
         <v>66</v>
       </c>
+      <c r="D26" s="49" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" s="10" customFormat="1" ht="15" spans="1:4">
-      <c r="A27" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46" t="s">
+      <c r="A27" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="1">
